--- a/CHECK_DATA_EXCEL/bieu mẫu test/BM2.xlsx
+++ b/CHECK_DATA_EXCEL/bieu mẫu test/BM2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB_KT dữ liệu excel\website_check_data_excel\TONG HOP BV_V4\bieu mẫu test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOAI\WEB_CHECK_DATA_EXCEL\website_check_data_excel\CHECK_DATA_EXCEL\bieu mẫu test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD67FF5-BA16-46A8-841B-51D3BFBD54C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
   <si>
     <t>Tên</t>
   </si>
@@ -66,12 +67,15 @@
   </si>
   <si>
     <t xml:space="preserve"> B + D</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,11 +395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +463,7 @@
         <v>1111111111</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -487,6 +491,356 @@
         <v>1111111113</v>
       </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>2222223</v>
+      </c>
+      <c r="C7">
+        <v>1111111113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>2222223</v>
+      </c>
+      <c r="C8">
+        <v>1111111113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2222223</v>
+      </c>
+      <c r="C9">
+        <v>1111111113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2222223</v>
+      </c>
+      <c r="C10">
+        <v>1111111113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>2222223</v>
+      </c>
+      <c r="C11">
+        <v>1111111113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2222223</v>
+      </c>
+      <c r="C12">
+        <v>1111111113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2222223</v>
+      </c>
+      <c r="C13">
+        <v>1111111113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2222223</v>
+      </c>
+      <c r="C14">
+        <v>1111111113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2222223</v>
+      </c>
+      <c r="C15">
+        <v>1111111113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>2222223</v>
+      </c>
+      <c r="C16">
+        <v>1111111113</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>2222223</v>
+      </c>
+      <c r="C17">
+        <v>1111111113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>2222223</v>
+      </c>
+      <c r="C18">
+        <v>1111111113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>2222223</v>
+      </c>
+      <c r="C19">
+        <v>1111111113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>2222223</v>
+      </c>
+      <c r="C20">
+        <v>1111111113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>2222223</v>
+      </c>
+      <c r="C21">
+        <v>1111111113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>2222223</v>
+      </c>
+      <c r="C22">
+        <v>1111111113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>2222223</v>
+      </c>
+      <c r="C23">
+        <v>1111111113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>2222223</v>
+      </c>
+      <c r="C24">
+        <v>1111111113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>2222223</v>
+      </c>
+      <c r="C25">
+        <v>1111111113</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>2222223</v>
+      </c>
+      <c r="C26">
+        <v>1111111113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>2222223</v>
+      </c>
+      <c r="C27">
+        <v>1111111113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>2222223</v>
+      </c>
+      <c r="C28">
+        <v>1111111113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>2222223</v>
+      </c>
+      <c r="C29">
+        <v>1111111113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <v>2222223</v>
+      </c>
+      <c r="C30">
+        <v>1111111113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>2222223</v>
+      </c>
+      <c r="C31">
+        <v>1111111113</v>
+      </c>
+      <c r="D31" t="s">
         <v>13</v>
       </c>
     </row>
